--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2D0A58-A016-4447-91ED-51515573B281}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEBF7ED-9996-4B98-939E-D73ABA528280}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>Unit</t>
   </si>
@@ -686,10 +686,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A17" totalsRowShown="0">
-  <autoFilter ref="A1:A17" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
-    <sortCondition ref="A1:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A18" totalsRowShown="0">
+  <autoFilter ref="A1:A18" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A18">
+    <sortCondition ref="A1:A18"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{92FD8766-2E9E-48CC-B065-131067C79BF9}" name="object_type"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,7 +1459,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19B835F9-D92E-40A0-A037-A2A4A06AE948}">
           <x14:formula1>
-            <xm:f>DropDown!$A$2:$A$39</xm:f>
+            <xm:f>DropDown!$A$3:$A$40</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1957,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1972,81 +1972,86 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEBF7ED-9996-4B98-939E-D73ABA528280}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741767AE-75AB-46B5-9BF3-B6C2E68F9CEC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="1125" yWindow="-20550" windowWidth="22710" windowHeight="17580" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
     <sheet name="DropDown" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"18269c08-35ee-405d-a1bf-bc28bbbe7049"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Unit</t>
   </si>
@@ -123,9 +120,6 @@
     <t>Cap_Output2_max</t>
   </si>
   <si>
-    <t>Cap_Output_1_max</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -213,15 +207,6 @@
     <t>Object_type</t>
   </si>
   <si>
-    <t>storage_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_storages</t>
-  </si>
-  <si>
-    <t>storage_investment_cost</t>
-  </si>
-  <si>
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
@@ -234,162 +219,51 @@
     <t>units_on_cost</t>
   </si>
   <si>
-    <t>minimum_op_point</t>
-  </si>
-  <si>
-    <t>unit_idle_heat_rate</t>
-  </si>
-  <si>
     <t>resolution_output</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>unit_investment_variable_type</t>
-  </si>
-  <si>
-    <t>unit_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_units</t>
-  </si>
-  <si>
-    <t>Error messages:</t>
-  </si>
-  <si>
     <t>object_type</t>
   </si>
   <si>
     <t>PV_plant</t>
   </si>
   <si>
-    <t>Solar_Plant_Kasso</t>
-  </si>
-  <si>
-    <t>Power_Kasso</t>
-  </si>
-  <si>
-    <t>unit_investment_variable_type_continuous</t>
-  </si>
-  <si>
-    <t>35Y</t>
-  </si>
-  <si>
-    <t>Electrolyzer</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Hydrogen_Kasso</t>
-  </si>
-  <si>
-    <t>Waste_Heat</t>
-  </si>
-  <si>
-    <t>25Y</t>
-  </si>
-  <si>
-    <t>Destilation_Tower</t>
-  </si>
-  <si>
-    <t>Raw_Methanol</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>E-Methanol_Kasso</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>30Y</t>
-  </si>
-  <si>
     <t>Steam_Plant</t>
   </si>
   <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
-    <t>20Y</t>
-  </si>
-  <si>
-    <t>RWGS</t>
-  </si>
-  <si>
     <t>CO2_Vaporizer</t>
   </si>
   <si>
-    <t>Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Vaporized_Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Fuel_Synthezyser</t>
-  </si>
-  <si>
-    <t>Carbon_Monoxide</t>
-  </si>
-  <si>
-    <t>Jet_Fuel</t>
-  </si>
-  <si>
-    <t>eDiesel</t>
-  </si>
-  <si>
-    <t>power_line_Wholesale_Kasso</t>
-  </si>
-  <si>
     <t>Power_line</t>
   </si>
   <si>
-    <t>Power_Wholesale</t>
-  </si>
-  <si>
     <t>connection_type_lossless_bidirectional</t>
   </si>
   <si>
     <t>40Y</t>
   </si>
   <si>
-    <t>pipeline_storage_hydrogen</t>
-  </si>
-  <si>
     <t>Hydrogen_pipeline</t>
   </si>
   <si>
-    <t>Hydrogen_storage_Kasso</t>
-  </si>
-  <si>
     <t>connection_type_normal</t>
   </si>
   <si>
     <t>50Y</t>
   </si>
   <si>
-    <t>pipeline_District_Heating</t>
-  </si>
-  <si>
     <t>Heat_pipeline</t>
   </si>
   <si>
-    <t>District_Heating</t>
-  </si>
-  <si>
-    <t>pipeline_storage_jetfuel</t>
-  </si>
-  <si>
-    <t>JetFuel_Kasso</t>
-  </si>
-  <si>
-    <t>JetFuel_storage_Kasso</t>
-  </si>
-  <si>
     <t>Hydrogen_storage</t>
   </si>
   <si>
@@ -421,13 +295,106 @@
   </si>
   <si>
     <t>Jet_fuel_pipeline</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input2</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output2</t>
+  </si>
+  <si>
+    <t>solar_plant</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>electrolyzer</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>co2_vaporizer</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>vaporized_co2</t>
+  </si>
+  <si>
+    <t>rwgs</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>fuel_synthesizer</t>
+  </si>
+  <si>
+    <t>raw_fuels</t>
+  </si>
+  <si>
+    <t>dist_tower</t>
+  </si>
+  <si>
+    <t>Distillation_tower</t>
+  </si>
+  <si>
+    <t>other_fuels</t>
+  </si>
+  <si>
+    <t>jet_fuel</t>
+  </si>
+  <si>
+    <t>pl_wholesale</t>
+  </si>
+  <si>
+    <t>power_wholesale</t>
+  </si>
+  <si>
+    <t>pl_h2_st</t>
+  </si>
+  <si>
+    <t>h2_st</t>
+  </si>
+  <si>
+    <t>pl_egasoline_st</t>
+  </si>
+  <si>
+    <t>pl_dh</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>jet_fuel_st</t>
+  </si>
+  <si>
+    <t>initial_storages_invested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,24 +407,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -497,14 +446,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -516,9 +462,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -527,7 +470,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -545,128 +491,87 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Units"/>
-      <sheetName val="Connections"/>
-      <sheetName val="Storages"/>
-      <sheetName val="Drop_Down"/>
-      <sheetName val="Model_Data_Base (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ6" totalsRowShown="0">
-  <autoFilter ref="A1:AQ6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
-    <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
-    <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
-    <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Input2"/>
-    <tableColumn id="5" xr3:uid="{1193D369-BC65-45A6-8749-4CD88E2C1722}" name="Output1"/>
-    <tableColumn id="6" xr3:uid="{4AAC878F-692F-4277-A013-661DCC5DAE26}" name="Output2"/>
-    <tableColumn id="7" xr3:uid="{C21757F9-61E8-45D7-ADA3-80D8624CAEF0}" name="Cap_Input1_existing"/>
-    <tableColumn id="14" xr3:uid="{23796EE3-B67D-45AE-9553-CC3081EFDF57}" name="Cap_Input1_max"/>
-    <tableColumn id="15" xr3:uid="{DF0C0799-CA68-4E9B-A1FB-41F4996C01A9}" name="Cap_Input2_existing"/>
-    <tableColumn id="16" xr3:uid="{8A84DF9A-0F8E-4DA8-A009-F41EF2B05A60}" name="Cap_Input2_max"/>
-    <tableColumn id="17" xr3:uid="{6408F114-841E-472E-92F5-7B63FF1B66F4}" name="Cap_Output1_existing"/>
-    <tableColumn id="18" xr3:uid="{541C17F0-C020-47FE-9DA4-DB76D7416668}" name="Cap_Output_1_max"/>
-    <tableColumn id="19" xr3:uid="{D6FEE63D-DC89-4D1A-9708-5E7C70FD5793}" name="Cap_Output2_existing"/>
-    <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="Cap_Output2_max"/>
-    <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="mean_efficiency"/>
-    <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="min_down_time"/>
-    <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_up_Output1"/>
-    <tableColumn id="29" xr3:uid="{5A66563E-85FF-4FFA-9DB7-EAC64F37E721}" name="ramp_up_Output2"/>
-    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="ramp_down_Output1"/>
-    <tableColumn id="31" xr3:uid="{FF26E17F-A633-477F-A8B8-3FD0C0B88F7D}" name="ramp_down_Output2"/>
-    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="start_up_Output1"/>
-    <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="start_up_Output2"/>
-    <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="shut_down_Output1"/>
-    <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="shut_down_Output2"/>
-    <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
-    <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out" dataDxfId="3">
-      <calculatedColumnFormula>1/0.795</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="2">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
-    <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="fom_cost"/>
-    <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost"/>
-    <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Input1"/>
-    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Input2"/>
-    <tableColumn id="34" xr3:uid="{07BFD460-8B2F-4C66-8709-DAF17E5F2C62}" name="vom_cost_Output1"/>
-    <tableColumn id="35" xr3:uid="{EF2A3F17-0D1A-480E-A13D-A5808719A3ED}" name="vom_cost_Output2"/>
-    <tableColumn id="36" xr3:uid="{CFFB3FD3-3581-4635-8E26-A397976C50BA}" name="minimum_op_point"/>
-    <tableColumn id="37" xr3:uid="{FF4178F5-A47B-4920-A52E-1B3F85F074B2}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{025B798B-AEA0-4557-A1C1-691EF0E57AB5}" name="resolution_output"/>
-    <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="demand"/>
-    <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="unit_investment_variable_type"/>
-    <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="42" xr3:uid="{363D0C55-B2E1-44C7-87B7-7505E7326FF0}" name="number_of_units"/>
-    <tableColumn id="43" xr3:uid="{D9CDEEFF-E080-4B8B-8CB3-8D91FD4E3834}" name="Error messages:"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:AE8" totalsRowShown="0">
+  <autoFilter ref="A1:AE8" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{D347015F-CF17-4A9D-8294-ADF748DF1773}" name="Unit"/>
+    <tableColumn id="2" xr3:uid="{D82A47BB-4363-4E36-A8AE-65EDC2C013A4}" name="Object_type"/>
+    <tableColumn id="3" xr3:uid="{2688CFC0-FBC2-4F49-A2CD-D81849210DB3}" name="Input1"/>
+    <tableColumn id="4" xr3:uid="{6D5A29A7-4368-479D-80FC-10A337666B84}" name="Input2"/>
+    <tableColumn id="5" xr3:uid="{EBF96CF4-246F-4FE7-A332-2640BEB75A1B}" name="Output1"/>
+    <tableColumn id="6" xr3:uid="{F5B6F83F-E465-45F1-B3FF-CDCFFB00FD7C}" name="Output2"/>
+    <tableColumn id="26" xr3:uid="{862DA0F5-9D5E-48BC-8725-6582E1A51B6F}" name="mean_efficiency"/>
+    <tableColumn id="28" xr3:uid="{4C40B531-4378-4494-AEC7-62CFB3A9A22B}" name="min_down_time"/>
+    <tableColumn id="27" xr3:uid="{B83C11D6-43E5-4D32-A028-2A9664CD5771}" name="ramp_up_Output1"/>
+    <tableColumn id="29" xr3:uid="{FF9D6FBB-38B9-4E12-9669-C8E55832EFDC}" name="ramp_up_Output2"/>
+    <tableColumn id="30" xr3:uid="{29DDB73E-C664-4CB4-992F-94F31EDA68DC}" name="ramp_down_Output1"/>
+    <tableColumn id="31" xr3:uid="{46685B7F-3849-45D9-B956-53FB2C8D5B8C}" name="ramp_down_Output2"/>
+    <tableColumn id="32" xr3:uid="{4995D1F3-1663-46D5-9AE7-31886E6CD061}" name="start_up_Output1"/>
+    <tableColumn id="33" xr3:uid="{1B02A922-E186-49CE-9640-87C406CD42F2}" name="start_up_Output2"/>
+    <tableColumn id="9" xr3:uid="{5E8A4878-9123-444D-8CCC-69060E24F4B2}" name="shut_down_Output1"/>
+    <tableColumn id="20" xr3:uid="{843E3488-BE76-4661-89E5-6A1A4D526159}" name="shut_down_Output2"/>
+    <tableColumn id="10" xr3:uid="{1E42DFC1-A5A9-4174-BFFB-F6280A5324E4}" name="Relation_In_In"/>
+    <tableColumn id="11" xr3:uid="{BD95AC30-3BF6-44E7-9F9D-E60DE430AC38}" name="Relation_In_Out"/>
+    <tableColumn id="25" xr3:uid="{E39BB746-B5CA-44D0-B141-60CB9907DC92}" name="Relation_Out_Out"/>
+    <tableColumn id="24" xr3:uid="{1B26A3FA-736C-4F16-B08B-3C9C3E0ADCD5}" name="units_on_cost"/>
+    <tableColumn id="13" xr3:uid="{6AD6D1D4-6C5C-4CAB-BFAA-59566A4C5F83}" name="fom_cost"/>
+    <tableColumn id="22" xr3:uid="{D7A02CF3-FC7E-4FFC-AD38-AC5684BE892C}" name="vom_cost_Input1"/>
+    <tableColumn id="23" xr3:uid="{8D12B570-57AA-4CE8-8346-92640B0E4FE4}" name="vom_cost_Input2"/>
+    <tableColumn id="34" xr3:uid="{EC73142E-1604-47AE-86C6-AD3AD61C3FB5}" name="vom_cost_Output1"/>
+    <tableColumn id="35" xr3:uid="{67A64A5D-0BD8-4237-99E7-0DA8B12A1E6B}" name="vom_cost_Output2"/>
+    <tableColumn id="7" xr3:uid="{8B684245-CB0B-4E58-917D-96D57CE2B5AF}" name="minimum_op_point_Input1"/>
+    <tableColumn id="8" xr3:uid="{AB798E2C-B578-499A-A293-AD4A43F1F50F}" name="minimum_op_point_Input2"/>
+    <tableColumn id="12" xr3:uid="{68C1BB62-698E-4617-8F54-B0E3B4FA542A}" name="minimum_op_point_Output1"/>
+    <tableColumn id="14" xr3:uid="{434720A2-186A-4AA7-BD52-C5E420FE544C}" name="minimum_op_point_Output2"/>
+    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AB5" totalsRowShown="0">
-  <autoFilter ref="A1:AB5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
-    <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Object_type"/>
-    <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
-    <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
-    <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
-    <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
-    <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
-    <tableColumn id="7" xr3:uid="{E7E4A800-7F3E-4BF9-A884-F3BDD87E4621}" name="Cap_Input2_existing"/>
-    <tableColumn id="16" xr3:uid="{8893BE03-F801-4096-BA71-49D3B6176542}" name="Cap_Input2_max"/>
-    <tableColumn id="17" xr3:uid="{9DC965EA-6654-4828-B29B-097368A09D75}" name="Cap_Output1_existing"/>
-    <tableColumn id="19" xr3:uid="{CB576510-488A-48D1-9EBF-E417CAAAB7E4}" name="Cap_Output1_max"/>
-    <tableColumn id="20" xr3:uid="{5176DB25-AD8B-43E3-AEAF-7F27C99BEFB0}" name="Cap_Output2_existing"/>
-    <tableColumn id="8" xr3:uid="{5E25F56C-3E8C-4A4F-ACEB-CDBC45CA165F}" name="Cap_Output2_max"/>
-    <tableColumn id="18" xr3:uid="{5D07405F-AE18-4D9F-96A6-B56AE42485A2}" name="Efficency"/>
-    <tableColumn id="9" xr3:uid="{3138804A-F699-4287-89C7-DE76BAD06195}" name="Relation_In_In"/>
-    <tableColumn id="10" xr3:uid="{AE158189-8F74-4D1A-BE7F-20B56DC1FCA0}" name="Relation_In_Out"/>
-    <tableColumn id="23" xr3:uid="{C3B5D3DD-6B9E-4750-8098-2BDCA6D4F76B}" name="Relation_Out_Out"/>
-    <tableColumn id="11" xr3:uid="{ADDA3F91-13EA-44FD-BDAD-129E45FF1B77}" name="Relation_Out_In"/>
-    <tableColumn id="12" xr3:uid="{19693C8E-93B1-45BA-838A-11FFE3971C45}" name="Cost_invest"/>
-    <tableColumn id="13" xr3:uid="{9A50D747-7636-48C7-AEA4-AC76517E91C7}" name="fom_cost"/>
-    <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input1"/>
-    <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Input2"/>
-    <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output1"/>
-    <tableColumn id="26" xr3:uid="{BBB71EDD-0EC0-477F-903A-3BF251C590FC}" name="vom_cost_Output2"/>
-    <tableColumn id="27" xr3:uid="{65A6FC97-CBF5-4192-8668-F1903C17C1F5}" name="connection_investment_tech_lifetime"/>
-    <tableColumn id="28" xr3:uid="{6C87744B-3FF9-44BB-9394-82EE6DD0EE4E}" name="number_of_connections"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFFB7C99-360E-4E9C-9C4B-24063303FF25}" name="Table13" displayName="Table13" ref="A1:AA5" totalsRowShown="0">
+  <autoFilter ref="A1:AA5" xr:uid="{EFFB7C99-360E-4E9C-9C4B-24063303FF25}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{0B60459B-BFAA-433A-998B-57564CCEFAF1}" name="Connection"/>
+    <tableColumn id="2" xr3:uid="{C0C61C1C-8F08-418C-94F7-C2BD6112A62E}" name="Object_type"/>
+    <tableColumn id="3" xr3:uid="{BC9D86F7-8FDE-4FAF-A6B2-8BF7829723EF}" name="Input1"/>
+    <tableColumn id="4" xr3:uid="{31F6D71E-306D-4146-A535-A6A629EBE2DC}" name="Input2"/>
+    <tableColumn id="5" xr3:uid="{E176ABAF-D150-4E6A-8921-E24FCEB64CEB}" name="Output1"/>
+    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C9818184-D13F-4AF4-AE3A-C64F072A0385}" name="Connection_type"/>
+    <tableColumn id="15" xr3:uid="{52C8ADC6-49B2-4339-A761-5E82E904E3A6}" name="Cap_Input1_existing"/>
+    <tableColumn id="14" xr3:uid="{F6461E15-EE92-48B4-8879-9BDE3EBAAA17}" name="Cap_Input1_max"/>
+    <tableColumn id="7" xr3:uid="{E1FC8197-26C5-4315-BCB6-C0947DD43A9D}" name="Cap_Input2_existing"/>
+    <tableColumn id="16" xr3:uid="{0A4BD545-0C9D-4978-BF5F-266D94215A99}" name="Cap_Input2_max"/>
+    <tableColumn id="17" xr3:uid="{9FA35398-D6B3-472D-96BE-4AA3692A9442}" name="Cap_Output1_existing"/>
+    <tableColumn id="19" xr3:uid="{6209202D-47A3-4109-94D8-027C69F3CFEE}" name="Cap_Output1_max"/>
+    <tableColumn id="20" xr3:uid="{D82232B3-1A92-483B-B3D7-7F200EF7EF88}" name="Cap_Output2_existing"/>
+    <tableColumn id="8" xr3:uid="{1306A9C9-20AC-4986-A6CD-DD10F4C02999}" name="Cap_Output2_max"/>
+    <tableColumn id="18" xr3:uid="{FD82EA02-F893-4DF6-BFA3-3F42D8C0AE3F}" name="Efficency"/>
+    <tableColumn id="9" xr3:uid="{4B49CBDB-332B-4F45-84F2-66D148DB5BFF}" name="Relation_In_In"/>
+    <tableColumn id="10" xr3:uid="{C9F6D33D-4BAC-49E8-A7FE-9F7E5497BE15}" name="Relation_In_Out"/>
+    <tableColumn id="23" xr3:uid="{C9A0B66F-8D43-4330-8FE1-CAFE7604D54F}" name="Relation_Out_Out"/>
+    <tableColumn id="11" xr3:uid="{7DF65B8A-98AF-4060-80EC-3F18FC8839F7}" name="Relation_Out_In"/>
+    <tableColumn id="13" xr3:uid="{D5E63429-D2C7-43FE-AAA2-2C62CD38A32D}" name="fom_cost"/>
+    <tableColumn id="21" xr3:uid="{F4063674-E3AD-45AE-9EC7-98FA7D4465C8}" name="vom_cost_Input1"/>
+    <tableColumn id="24" xr3:uid="{C6F3C7A2-6811-4323-BD1E-2D6AEF8240A3}" name="vom_cost_Input2"/>
+    <tableColumn id="25" xr3:uid="{D9462AE1-DB02-44C0-8747-2E8EDE32CDCD}" name="vom_cost_Output1"/>
+    <tableColumn id="26" xr3:uid="{AA0BB5A2-F981-4351-BEA1-9D08AEE88F00}" name="vom_cost_Output2"/>
+    <tableColumn id="27" xr3:uid="{D97F37CE-BA52-4609-805C-4A354B917C73}" name="connection_investment_tech_lifetime"/>
+    <tableColumn id="28" xr3:uid="{9544E63A-C41E-45C8-843A-FAE04C599581}" name="number_of_connections"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
+  <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -677,9 +582,7 @@
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="Cost_invest"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="fom_cost"/>
     <tableColumn id="8" xr3:uid="{D3E26ECE-7BB7-42B8-829D-538BD4CDBDB6}" name="vom_cost"/>
-    <tableColumn id="9" xr3:uid="{0A1D8BBC-00AA-4BE2-AE05-790AC3DC8C47}" name="storage_investment_tech_lifetime"/>
-    <tableColumn id="10" xr3:uid="{2C02AE75-18E1-43C0-BD7D-2A33CD6D2344}" name="number_of_storages"/>
-    <tableColumn id="14" xr3:uid="{B6B58E65-7932-4722-B6A3-B26FE39DEC3E}" name="storage_investment_cost"/>
+    <tableColumn id="9" xr3:uid="{0A1D8BBC-00AA-4BE2-AE05-790AC3DC8C47}" name="initial_storages_invested"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,41 +898,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AR8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1044,409 +929,286 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2">
-        <v>304</v>
-      </c>
-      <c r="L2">
-        <v>304</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:Z6" si="0">1/0.795</f>
+        <v>79</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R8" si="0">1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AB2" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD2">
+      <c r="U2">
         <v>1.29</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="4"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>52</v>
-      </c>
-      <c r="O3">
         <v>0.75</v>
       </c>
-      <c r="Y3">
+      <c r="Q3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="Z3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AA3">
+      <c r="S3">
         <v>1.76</v>
       </c>
-      <c r="AD3">
+      <c r="U3">
         <v>4.34</v>
       </c>
-      <c r="AG3">
+      <c r="W3">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AJ3">
+      <c r="Z3">
         <v>0.02</v>
       </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4">
+        <v>3.6010731197896975E-3</v>
+      </c>
+      <c r="R4">
+        <v>3.601073119789697E-3</v>
+      </c>
+      <c r="V4">
+        <v>26.81</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4">
-        <v>52</v>
-      </c>
-      <c r="K4">
-        <v>52</v>
-      </c>
-      <c r="Y4">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="Z4">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AK4">
-        <v>0.1</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>20.192799999999998</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="Z5">
+      <c r="R6">
         <v>0.99</v>
       </c>
-      <c r="AD5">
+      <c r="U6">
         <v>0.11929223744292237</v>
       </c>
-      <c r="AG5">
+      <c r="W6">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AK5">
-        <v>0.1</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z6">
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <v>17.277901743828668</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AB6" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="Y7">
-        <v>3.6010731197896975E-3</v>
-      </c>
-      <c r="Z7">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="AF7">
-        <v>26.81</v>
-      </c>
-      <c r="AK7">
-        <v>0.1</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
+      <c r="AD8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>20.192799999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5 AL7" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 AD8" xr:uid="{CFBD78BE-C012-4EB7-94B5-90A802CAA548}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1454,59 +1216,47 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19B835F9-D92E-40A0-A037-A2A4A06AE948}">
-          <x14:formula1>
-            <xm:f>DropDown!$A$3:$A$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
     <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="19" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.81640625" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1521,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1551,25 +1301,25 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
       </c>
       <c r="X1" t="s">
         <v>31</v>
@@ -1578,36 +1328,33 @@
         <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1639,34 +1386,34 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2">
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1692,25 +1439,25 @@
       <c r="T3">
         <v>0.88</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="AA3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3">
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -1719,51 +1466,51 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>102</v>
       </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1780,10 +1527,10 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="AA5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB5">
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5">
         <v>1</v>
       </c>
     </row>
@@ -1793,28 +1540,14 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26EAE2B2-7C4D-4693-9155-E6D23ED798CD}">
-          <x14:formula1>
-            <xm:f>DropDown!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1830,56 +1563,50 @@
     <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1894,24 +1621,18 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2">
+        <v>64</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1920,19 +1641,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3">
+        <v>64</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{BBF88AA4-5FA1-4849-9C3D-41210E66AC69}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1947,7 +1665,7 @@
           <x14:formula1>
             <xm:f>DropDown!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B6:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1959,100 +1677,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741767AE-75AB-46B5-9BF3-B6C2E68F9CEC}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA3F014-99CE-4C29-9DCC-96CD77F1E32E}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="-20550" windowWidth="22710" windowHeight="17580" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-22860" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>Unit</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>initial_storages_invested</t>
+  </si>
+  <si>
+    <t>start_up_cost</t>
+  </si>
+  <si>
+    <t>shut_down_cost</t>
   </si>
 </sst>
 </file>
@@ -462,6 +468,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -474,9 +483,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,10 +497,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:AE8" totalsRowShown="0">
-  <autoFilter ref="A1:AE8" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:AG8" totalsRowShown="0">
+  <autoFilter ref="A1:AG8" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{D347015F-CF17-4A9D-8294-ADF748DF1773}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{D82A47BB-4363-4E36-A8AE-65EDC2C013A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{2688CFC0-FBC2-4F49-A2CD-D81849210DB3}" name="Input1"/>
@@ -511,6 +521,8 @@
     <tableColumn id="33" xr3:uid="{1B02A922-E186-49CE-9640-87C406CD42F2}" name="start_up_Output2"/>
     <tableColumn id="9" xr3:uid="{5E8A4878-9123-444D-8CCC-69060E24F4B2}" name="shut_down_Output1"/>
     <tableColumn id="20" xr3:uid="{843E3488-BE76-4661-89E5-6A1A4D526159}" name="shut_down_Output2"/>
+    <tableColumn id="18" xr3:uid="{B1F74BB5-C935-4339-844B-91294DFAF505}" name="start_up_cost"/>
+    <tableColumn id="17" xr3:uid="{FBDC5126-1D8E-4C1F-9851-884A7A8C8E9C}" name="shut_down_cost"/>
     <tableColumn id="10" xr3:uid="{1E42DFC1-A5A9-4174-BFFB-F6280A5324E4}" name="Relation_In_In"/>
     <tableColumn id="11" xr3:uid="{BD95AC30-3BF6-44E7-9F9D-E60DE430AC38}" name="Relation_In_Out"/>
     <tableColumn id="25" xr3:uid="{E39BB746-B5CA-44D0-B141-60CB9907DC92}" name="Relation_Out_Out"/>
@@ -524,8 +536,8 @@
     <tableColumn id="8" xr3:uid="{AB798E2C-B578-499A-A293-AD4A43F1F50F}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{68C1BB62-698E-4617-8F54-B0E3B4FA542A}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{434720A2-186A-4AA7-BD52-C5E420FE544C}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,7 +552,7 @@
     <tableColumn id="3" xr3:uid="{BC9D86F7-8FDE-4FAF-A6B2-8BF7829723EF}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{31F6D71E-306D-4146-A535-A6A629EBE2DC}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{E176ABAF-D150-4E6A-8921-E24FCEB64CEB}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{C9818184-D13F-4AF4-AE3A-C64F072A0385}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{52C8ADC6-49B2-4339-A761-5E82E904E3A6}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{F6461E15-EE92-48B4-8879-9BDE3EBAAA17}" name="Cap_Input1_max"/>
@@ -571,7 +583,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
   <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -898,7 +910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,10 +918,31 @@
   <cols>
     <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,52 +992,58 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1014,17 +1053,17 @@
       <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R8" si="0">1/0.795</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T8" si="0">1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>1.29</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1046,29 +1085,29 @@
       <c r="G3">
         <v>0.75</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1.76</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>4.34</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.02</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1084,19 +1123,19 @@
       <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>3.6010731197896975E-3</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.601073119789697E-3</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>26.81</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1112,14 +1151,14 @@
       <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1135,22 +1174,22 @@
       <c r="E6" t="s">
         <v>89</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.99</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.11929223744292237</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1169,10 +1208,10 @@
       <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1191,24 +1230,24 @@
       <c r="F8" t="s">
         <v>94</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>17.277901743828668</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AG8" s="4">
         <v>20.192799999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 AD8" xr:uid="{CFBD78BE-C012-4EB7-94B5-90A802CAA548}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{CFBD78BE-C012-4EB7-94B5-90A802CAA548}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA3F014-99CE-4C29-9DCC-96CD77F1E32E}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAB54AF-6FF5-4F41-B3F8-755943B00397}"/>
   <bookViews>
-    <workbookView xWindow="-22860" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-750" yWindow="-19380" windowWidth="16995" windowHeight="13800" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -231,12 +231,6 @@
     <t>PV_plant</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Steam_Plant</t>
-  </si>
-  <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>h2_st</t>
   </si>
   <si>
-    <t>pl_egasoline_st</t>
-  </si>
-  <si>
     <t>pl_dh</t>
   </si>
   <si>
@@ -394,6 +385,12 @@
   </si>
   <si>
     <t>shut_down_cost</t>
+  </si>
+  <si>
+    <t>steam_plant</t>
+  </si>
+  <si>
+    <t>pl_jet_fuel_st</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +423,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -462,11 +465,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -477,12 +487,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,10 +499,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +536,8 @@
     <tableColumn id="8" xr3:uid="{AB798E2C-B578-499A-A293-AD4A43F1F50F}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{68C1BB62-698E-4617-8F54-B0E3B4FA542A}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{434720A2-186A-4AA7-BD52-C5E420FE544C}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,7 +552,7 @@
     <tableColumn id="3" xr3:uid="{BC9D86F7-8FDE-4FAF-A6B2-8BF7829723EF}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{31F6D71E-306D-4146-A535-A6A629EBE2DC}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{E176ABAF-D150-4E6A-8921-E24FCEB64CEB}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{C9818184-D13F-4AF4-AE3A-C64F072A0385}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{52C8ADC6-49B2-4339-A761-5E82E904E3A6}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{F6461E15-EE92-48B4-8879-9BDE3EBAAA17}" name="Cap_Input1_max"/>
@@ -583,7 +583,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
   <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -912,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -992,10 +992,10 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1025,16 +1025,16 @@
         <v>32</v>
       </c>
       <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>77</v>
       </c>
       <c r="AF1" t="s">
         <v>48</v>
@@ -1045,42 +1045,35 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T8" si="0">1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="W2">
-        <v>1.29</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1088,10 +1081,6 @@
       <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
       <c r="U3">
         <v>1.76</v>
       </c>
@@ -1099,7 +1088,7 @@
         <v>4.34</v>
       </c>
       <c r="Y3">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AB3">
         <v>0.02</v>
@@ -1109,70 +1098,66 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
       <c r="S4">
-        <v>3.6010731197896975E-3</v>
+        <v>3.529412E-3</v>
       </c>
       <c r="T4">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="X4">
+        <v>3.529412E-3</v>
+      </c>
+      <c r="Y4">
         <v>26.81</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>87</v>
+      <c r="A5" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
         <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1181,73 +1166,62 @@
         <v>0.99</v>
       </c>
       <c r="W6">
-        <v>0.11929223744292237</v>
+        <v>0.11929223999999999</v>
       </c>
       <c r="Y6">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>90</v>
+      <c r="A7" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>20.192799999999998</v>
-      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{CFBD78BE-C012-4EB7-94B5-90A802CAA548}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{30166407-D40D-4A67-99C1-251D943081A2}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1375,25 +1349,25 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1426,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1434,25 +1408,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1482,74 +1456,50 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1567,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1586,12 +1536,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
@@ -1637,15 +1587,15 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1660,18 +1610,18 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>103</v>
+      <c r="A3" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1680,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1737,67 +1687,67 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -1807,12 +1757,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\jet_fuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAB54AF-6FF5-4F41-B3F8-755943B00397}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-750" yWindow="-19380" windowWidth="16995" windowHeight="13800" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -472,12 +472,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -487,6 +481,12 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,8 +536,8 @@
     <tableColumn id="8" xr3:uid="{AB798E2C-B578-499A-A293-AD4A43F1F50F}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{68C1BB62-698E-4617-8F54-B0E3B4FA542A}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{434720A2-186A-4AA7-BD52-C5E420FE544C}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,7 +552,7 @@
     <tableColumn id="3" xr3:uid="{BC9D86F7-8FDE-4FAF-A6B2-8BF7829723EF}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{31F6D71E-306D-4146-A535-A6A629EBE2DC}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{E176ABAF-D150-4E6A-8921-E24FCEB64CEB}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{EB53F534-595A-4E1E-82EE-E811ECDB4974}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{C9818184-D13F-4AF4-AE3A-C64F072A0385}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{52C8ADC6-49B2-4339-A761-5E82E904E3A6}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{F6461E15-EE92-48B4-8879-9BDE3EBAAA17}" name="Cap_Input1_max"/>
@@ -583,7 +583,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
   <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -912,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1139,6 +1141,9 @@
       </c>
       <c r="E5" t="s">
         <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -1536,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\jet_fuel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753C21E4-16CA-4137-A09C-3495701D17A8}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Unit</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>value_before</t>
-  </si>
-  <si>
-    <t>value_start</t>
   </si>
   <si>
     <t>Relation_Out_In</t>
@@ -580,13 +577,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
-    <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
     <tableColumn id="2" xr3:uid="{1FB70133-79C8-41A8-BCD5-AC8AA5856E5B}" name="has_state"/>
     <tableColumn id="3" xr3:uid="{11AD2EA9-CE36-4CCE-8F89-387EFE0D8EED}" name="node_state_cap"/>
     <tableColumn id="7" xr3:uid="{FDFFF561-E931-46C6-8D90-30C5BF9CB9E9}" name="frac_state_loss"/>
@@ -912,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -964,40 +960,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" t="s">
         <v>102</v>
-      </c>
-      <c r="R1" t="s">
-        <v>103</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1009,73 +1005,73 @@
         <v>18</v>
       </c>
       <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>48</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1100,19 +1096,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1128,41 +1124,41 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1181,44 +1177,44 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" t="s">
         <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="4"/>
@@ -1274,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1328,51 +1324,51 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
       <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
         <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1405,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1413,25 +1409,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1461,7 +1457,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1469,42 +1465,42 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1522,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1539,112 +1535,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5478.6764505058327</v>
+      </c>
       <c r="F2">
-        <v>5478.6764505058327</v>
-      </c>
-      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{BBF88AA4-5FA1-4849-9C3D-41210E66AC69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{BBF88AA4-5FA1-4849-9C3D-41210E66AC69}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1682,92 +1674,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753C21E4-16CA-4137-A09C-3495701D17A8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9742F1A2-03E2-409A-9D77-4C4E26F4C7B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>pl_jet_fuel_st</t>
+  </si>
+  <si>
+    <t>initial_units_on</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:AG8" totalsRowShown="0">
-  <autoFilter ref="A1:AG8" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:AH8" totalsRowShown="0">
+  <autoFilter ref="A1:AH8" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{D347015F-CF17-4A9D-8294-ADF748DF1773}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{D82A47BB-4363-4E36-A8AE-65EDC2C013A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{2688CFC0-FBC2-4F49-A2CD-D81849210DB3}" name="Input1"/>
@@ -535,6 +542,7 @@
     <tableColumn id="14" xr3:uid="{434720A2-186A-4AA7-BD52-C5E420FE544C}" name="minimum_op_point_Output2"/>
     <tableColumn id="15" xr3:uid="{0C029686-E14C-4BAF-8B3D-3ED880CBB758}" name="resolution_output" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{4F32D3CC-D65E-436B-A8EE-58FBC117DA41}" name="demand" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4B02BA0-A154-4F00-855E-6FD9D2CD7958}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,11 +914,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -940,7 +946,7 @@
     <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1046,11 @@
       <c r="AG1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1054,7 +1063,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1122,7 +1131,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -1144,7 +1153,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1175,7 +1184,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -1196,8 +1205,11 @@
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
@@ -1217,7 +1229,9 @@
         <v>91</v>
       </c>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="4"/>
+      <c r="AG8" s="4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/jet_fuel/Model_Data_Base_jet_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9742F1A2-03E2-409A-9D77-4C4E26F4C7B5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{883EF14E-D4B3-4A10-B767-9D8AFEDD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3EBD2C-FFBE-4816-9636-6AEB8F85D8B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="1125" yWindow="-21270" windowWidth="14400" windowHeight="8265" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>Unit</t>
   </si>
@@ -315,9 +315,6 @@
     <t>h2</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>co2_vaporizer</t>
   </si>
   <si>
@@ -391,6 +388,24 @@
   </si>
   <si>
     <t>initial_units_on</t>
+  </si>
+  <si>
+    <t>heat_low</t>
+  </si>
+  <si>
+    <t>heat_high</t>
+  </si>
+  <si>
+    <t>heat_split</t>
+  </si>
+  <si>
+    <t>Auxilliary</t>
+  </si>
+  <si>
+    <t>internal_heat</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
   </si>
 </sst>
 </file>
@@ -605,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A18" totalsRowShown="0">
-  <autoFilter ref="A1:A18" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A19" totalsRowShown="0">
+  <autoFilter ref="A1:A19" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A18">
     <sortCondition ref="A1:A18"/>
   </sortState>
@@ -914,9 +929,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -946,7 +961,7 @@
     <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,10 +1011,10 @@
         <v>41</v>
       </c>
       <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" t="s">
-        <v>102</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1047,10 +1062,10 @@
         <v>48</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1063,7 +1078,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1103,9 +1118,9 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -1114,10 +1129,10 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1131,9 +1146,9 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -1142,10 +1157,10 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>78</v>
@@ -1153,9 +1168,9 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -1167,7 +1182,7 @@
         <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1184,24 +1199,24 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -1209,34 +1224,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="4">
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9">
+        <v>0.4</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{30166407-D40D-4A67-99C1-251D943081A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8 AI9" xr:uid="{30166407-D40D-4A67-99C1-251D943081A2}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1251,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1364,13 +1401,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1379,7 +1416,7 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -1423,7 +1460,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -1432,10 +1469,10 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
         <v>79</v>
@@ -1479,22 +1516,22 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
@@ -1502,16 +1539,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
         <v>57</v>
@@ -1598,12 +1635,12 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -1629,7 +1666,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -1675,11 +1712,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1776,6 +1811,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
